--- a/data/publications/orcid/export_to_manual/Uniwersytet_Marii_Curie-Skłodowskiej_w_Lublinie_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Marii_Curie-Skłodowskiej_w_Lublinie_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,516 +436,560 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Paulina Banaszkiewicz</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0237-3121</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Zazdrość romantyczna: kluczowe koncepcje teoretyczne i narzędzia pomiaru</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Psychologia Społeczna</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Paulina_Banaszkiewicz_3</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Anna Błaszczak</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0597-5117</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>THE EFFECTIVENESS OF MINDFULNESS STRESS BASED REDUCTION TRAINING AS A METHOD OF SUPPORTING NURSES IN COPING WITH STRESS AND BURNOUT</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2019-06-01</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Polish Nursing</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anna_Błaszczak_4</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>46</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Justyna Gerłowska</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0119-9077</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Facial emotion mimicry in older adults with and without cognitive impairments due to Alzheimer's disease</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2021-01-27</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>AIMS Neuroscience</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Justyna_Gerłowska_1</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Tomasz Rafał Knopik</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5253-7545</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t xml:space="preserve">Projektowanie uniwersalne jako perspektywa metodyczna edukacji włączającej </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2021-12-29</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Niepełnosprawność- Dyskursy Pedagogiki Specjalnej</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tomasz_Rafał_Knopik_2</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Tomasz Rafał Knopik</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5253-7545</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Doradztwo edukacyjno-zawodowe dla uczniów zdolnych – od wyzwań do modelu wsparcia</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Przedsiębiorczość i Zarządzanie</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tomasz_Rafał_Knopik_12</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>62</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Tomasz Rafał Knopik</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5253-7545</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Uczeń zdolny jako uczeń ze specjalnymi potrzebami edukacyjnymi</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Języki Obce w Szkole</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tomasz_Rafał_Knopik_13</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>64</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Tomasz Rafał Knopik</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5253-7545</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Znaczenie diagnozy funkcjonalnej w edukacji uczniów ze specjalnymi potrzebami edukacyjnymi</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Roczniki Pedagogiczne</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Tomasz_Rafał_Knopik_15</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>65</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Tomasz Rafał Knopik</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5253-7545</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Diagnoza kompetencji emocjonalno-społecznych uczniów zdolnych w środkowym wieku szkolnym z wykorzystaniem baterii TROS-KA - doniesienie z badań</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Ruch pedagogiczny</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Tomasz_Rafał_Knopik_16</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>66</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Tomasz Rafał Knopik</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5253-7545</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Diagnoza kompetencji emocjonalno-społecznych uczniów zdolnych w środkowym wieku szkolnym z wykorzystaniem baterii TROS-KA - doniesienie z badań</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Ruch pedagogiczny</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Tomasz_Rafał_Knopik_17</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>67</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Tomasz Rafał Knopik</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5253-7545</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Oszwa U., Domagała-Zyśk E., Knopik T. (2017). Zasoby odpornościowe uczniów w środkowym wieku szkolnym a ryzyko niedostosowania społecznego</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Ruch pedagogiczny</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Tomasz_Rafał_Knopik_18</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>68</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Tomasz Rafał Knopik</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5253-7545</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Nauczanie promądrościowe jako strategia  wspomagania zrównoważonego rozwoju  uczniów zdolnych</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Edukacja Etyczna</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Tomasz_Rafał_Knopik_19</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>73</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Kalina Kosacka</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5783-3332</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Językowe przejawy ekspresywności w wypowiedziach młodych artystów</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Prace Językoznawcze</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Kalina_Kosacka_4</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>91</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Anna Tychmanowicz</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-9689-7160</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Does religiosity make us stronger? Relationships between religiosity and mental health</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2021-10-15</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Anna_Tychmanowicz_1</t>
         </is>
